--- a/Template - Mapa de presenças e ausências.xlsx
+++ b/Template - Mapa de presenças e ausências.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBortoto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GBortoto\Documents\Guilherme\Projetos\Mapa de presenças e ausências\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27915" windowHeight="11340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>Mapa de Presenças/Ausências</t>
   </si>
@@ -65,18 +65,6 @@
     <t>Período da Tarde</t>
   </si>
   <si>
-    <t>ACH2005    IHC</t>
-  </si>
-  <si>
-    <t>MAC0337 Computação Musical</t>
-  </si>
-  <si>
-    <t>ACH2024   AED II</t>
-  </si>
-  <si>
-    <t>ACH2025   LBD</t>
-  </si>
-  <si>
     <t>Presente</t>
   </si>
   <si>
@@ -96,12 +84,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Total - Terça</t>
-  </si>
-  <si>
-    <t>Total - Quinta</t>
   </si>
   <si>
     <t>Positivas</t>
@@ -394,13 +376,7 @@
     <t>Do lado esquerdo, temos todas as datas, automaticamente calculadas.</t>
   </si>
   <si>
-    <t>Do lado direito, temos a contagem de presenças e ausências.                           Linhas finas são aulas curtas, linhas grossas são aulas longas/duplas...</t>
-  </si>
-  <si>
     <t>... ou não                                                   Isso não altera o sistema de presenças, faça como preferir ^^</t>
-  </si>
-  <si>
-    <t>Para adicionar mais dias, basta copiar o último pedaço da estrutura</t>
   </si>
   <si>
     <t>&lt;- Ctrl-c</t>
@@ -416,6 +392,228 @@
   </si>
   <si>
     <t>Voltar</t>
+  </si>
+  <si>
+    <t>Para adicionar mais dias, basta copiar o último pedaço da estrutura.                        A data irá atualizar automaticamente.</t>
+  </si>
+  <si>
+    <t>Do lado direito, temos a contagem de presenças e ausências.                                 Celulas únicas são aulas curtas, celulas duplas são aulas longas/duplas...</t>
+  </si>
+  <si>
+    <t>Para criar uma nova matéria, selecione uma matéria já existente e copie todo o seu conteudo para uma nova célula</t>
+  </si>
+  <si>
+    <t>Ctrl-v -&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OBS: Sempre use os comandos de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">copiar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Não utilize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o comando de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recortar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ctrl+X), pois a célula contadora não irá funcionar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Porque não posso usar Ctrl+X?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No final da barra de ferramentas, ali em cima, existe um botão chamado "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Limpar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>". A opção "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Limpar tudo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" retorna as células de volta para o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estado original</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se quiser alterar todos os dias das aulas, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>basta alterar o primeiro dia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     Todos os outros dias atualizaram também</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modificar essa data        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -533,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,8 +798,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="53">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -894,36 +1098,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1267,12 +1441,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF217346"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FF217346"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FF217346"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF217346"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FF217346"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF217346"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF217346"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF217346"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF217346"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF217346"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF217346"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF217346"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF217346"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF217346"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FF217346"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF217346"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF217346"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF217346"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FF217346"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color rgb="FF217346"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1316,71 +1672,137 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1394,54 +1816,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,6 +1828,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,433 +1873,436 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2254,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:M15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2295,32 +2705,32 @@
     </row>
     <row r="2" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="69"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
       <c r="AB2" s="12"/>
@@ -2342,30 +2752,30 @@
     </row>
     <row r="3" spans="1:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="27"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -2387,40 +2797,38 @@
     </row>
     <row r="4" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
+      <c r="B4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="20"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -2442,36 +2850,36 @@
     </row>
     <row r="5" spans="1:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="19"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
@@ -2485,198 +2893,166 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
     </row>
-    <row r="6" spans="1:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="37" t="e">
+      <c r="B6" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="59" t="e">
         <f>(
  ROUNDDOWN(
  (
  (
- (COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(D8:E101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
- (COUNTIF(D8:E101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ (COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(D8:E100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
  )*100/(
- COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(D8:E101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(D8:E100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(D8:E100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(D8:E100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(D8:E100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
  )
  ),2)
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="37" t="e">
+      <c r="E6" s="60"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="187" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="188"/>
+      <c r="I6" s="59" t="e">
         <f>(
  ROUNDDOWN(
  (
  (
- (COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(I8:J101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
- (COUNTIF(I8:J101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ (COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(I8:J100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
  )*100/(
- COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(I8:J101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(I8:J100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(I8:J100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(I8:J100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(I8:J100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
  )
  ),2)
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="37" t="e">
+      <c r="J6" s="60"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="79"/>
+      <c r="N6" s="59" t="e">
         <f>(
  ROUNDDOWN(
  (
  (
- (COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(N8:O101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
- (COUNTIF(N8:O101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ (COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(N8:O100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
  )*100/(
- COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(N8:O101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(N8:O100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(N8:O100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(N8:O100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(N8:O100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
  )
  ),2)
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="37" t="e">
+      <c r="O6" s="60"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="56"/>
+      <c r="S6" s="59" t="e">
         <f>(
  ROUNDDOWN(
  (
  (
- (COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(S8:T101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
- (COUNTIF(S8:T101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ (COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(S8:T100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
  )*100/(
- COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(S8:T101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(S8:T100,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(S8:T100,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(S8:T100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(S8:T100,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
  )
  ),2)
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="42"/>
-      <c r="X6" s="37" t="e">
-        <f>(
- ROUNDDOWN(
- (
- (
- (COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(X8:Y101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
- (COUNTIF(X8:Y101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
- )*100/(
- COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(X8:Y101,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
- )
- ),2)
-)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="19"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
@@ -2692,40 +3068,36 @@
     </row>
     <row r="7" spans="1:43" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="107"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="19"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
@@ -2741,42 +3113,40 @@
     </row>
     <row r="8" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" s="65">
+      <c r="B8" s="48">
         <v>42736</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="68">
+      <c r="C8" s="49"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="50">
         <v>42801</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="47">
+      <c r="H8" s="50"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="51">
         <v>42802</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="68">
+      <c r="M8" s="51"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="52">
         <v>42803</v>
       </c>
-      <c r="R8" s="68"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="53">
-        <v>42803</v>
-      </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="19"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="13"/>
       <c r="AK8" s="9"/>
@@ -2789,32 +3159,32 @@
     </row>
     <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="19"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
@@ -2824,47 +3194,44 @@
     </row>
     <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
-      <c r="B10" s="55">
+      <c r="B10" s="46">
         <f t="shared" ref="B10" si="0">B8+7</f>
         <v>42743</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="33">
+      <c r="C10" s="47"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="42">
         <f t="shared" ref="G10" si="1">G8+7</f>
         <v>42808</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="48">
+      <c r="H10" s="43"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="40">
         <f t="shared" ref="L10" si="2">L8+7</f>
         <v>42809</v>
       </c>
-      <c r="M10" s="102"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="33">
+      <c r="M10" s="41"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="44">
         <f t="shared" ref="Q10" si="3">Q8+7</f>
         <v>42810</v>
       </c>
-      <c r="R10" s="99"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="49">
-        <f t="shared" ref="V10" si="4">V8+7</f>
-        <v>42810</v>
-      </c>
-      <c r="W10" s="50"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="19"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
@@ -2874,32 +3241,32 @@
     </row>
     <row r="11" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="19"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
@@ -2909,47 +3276,44 @@
     </row>
     <row r="12" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="B12" s="55">
-        <f t="shared" ref="B12" si="5">B10+7</f>
+      <c r="B12" s="46">
+        <f t="shared" ref="B12" si="4">B10+7</f>
         <v>42750</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="33">
-        <f t="shared" ref="G12" si="6">G10+7</f>
+      <c r="C12" s="47"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="42">
+        <f t="shared" ref="G12" si="5">G10+7</f>
         <v>42815</v>
       </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="48">
-        <f t="shared" ref="L12" si="7">L10+7</f>
+      <c r="H12" s="43"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="40">
+        <f t="shared" ref="L12" si="6">L10+7</f>
         <v>42816</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="33">
-        <f t="shared" ref="Q12" si="8">Q10+7</f>
+      <c r="M12" s="41"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="44">
+        <f t="shared" ref="Q12" si="7">Q10+7</f>
         <v>42817</v>
       </c>
-      <c r="R12" s="99"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="49">
-        <f t="shared" ref="V12" si="9">V10+7</f>
-        <v>42817</v>
-      </c>
-      <c r="W12" s="50"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="19"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9"/>
@@ -2959,32 +3323,32 @@
     </row>
     <row r="13" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="19"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
@@ -2994,47 +3358,44 @@
     </row>
     <row r="14" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="B14" s="55">
-        <f t="shared" ref="B14" si="10">B12+7</f>
+      <c r="B14" s="46">
+        <f t="shared" ref="B14" si="8">B12+7</f>
         <v>42757</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="33">
-        <f t="shared" ref="G14" si="11">G12+7</f>
+      <c r="C14" s="47"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="42">
+        <f t="shared" ref="G14" si="9">G12+7</f>
         <v>42822</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="48">
-        <f t="shared" ref="L14" si="12">L12+7</f>
+      <c r="H14" s="43"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="40">
+        <f t="shared" ref="L14" si="10">L12+7</f>
         <v>42823</v>
       </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="33">
-        <f t="shared" ref="Q14" si="13">Q12+7</f>
+      <c r="M14" s="41"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="44">
+        <f t="shared" ref="Q14" si="11">Q12+7</f>
         <v>42824</v>
       </c>
-      <c r="R14" s="99"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="49">
-        <f t="shared" ref="V14" si="14">V12+7</f>
-        <v>42824</v>
-      </c>
-      <c r="W14" s="50"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="19"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
@@ -3044,32 +3405,32 @@
     </row>
     <row r="15" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="19"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -3079,51 +3440,48 @@
     </row>
     <row r="16" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
-      <c r="B16" s="55">
-        <f t="shared" ref="B16" si="15">B14+7</f>
+      <c r="B16" s="46">
+        <f t="shared" ref="B16" si="12">B14+7</f>
         <v>42764</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="33">
-        <f t="shared" ref="G16" si="16">G14+7</f>
+      <c r="C16" s="47"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="42">
+        <f t="shared" ref="G16" si="13">G14+7</f>
         <v>42829</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="48">
-        <f t="shared" ref="L16" si="17">L14+7</f>
+      <c r="H16" s="43"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="40">
+        <f t="shared" ref="L16" si="14">L14+7</f>
         <v>42830</v>
       </c>
-      <c r="M16" s="102"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="33">
-        <f t="shared" ref="Q16" si="18">Q14+7</f>
+      <c r="M16" s="41"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="44">
+        <f t="shared" ref="Q16" si="15">Q14+7</f>
         <v>42831</v>
       </c>
-      <c r="R16" s="99"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="49">
-        <f t="shared" ref="V16" si="19">V14+7</f>
-        <v>42831</v>
-      </c>
-      <c r="W16" s="50"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="19"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
       <c r="AF16" s="12"/>
       <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
@@ -3139,36 +3497,36 @@
     </row>
     <row r="17" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="19"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
@@ -3184,51 +3542,48 @@
     </row>
     <row r="18" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18" s="55">
-        <f t="shared" ref="B18" si="20">B16+7</f>
+      <c r="B18" s="46">
+        <f t="shared" ref="B18" si="16">B16+7</f>
         <v>42771</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="33">
-        <f t="shared" ref="G18" si="21">G16+7</f>
+      <c r="C18" s="47"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="42">
+        <f t="shared" ref="G18" si="17">G16+7</f>
         <v>42836</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="48">
-        <f t="shared" ref="L18" si="22">L16+7</f>
+      <c r="H18" s="43"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="40">
+        <f t="shared" ref="L18" si="18">L16+7</f>
         <v>42837</v>
       </c>
-      <c r="M18" s="102"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="33">
-        <f t="shared" ref="Q18" si="23">Q16+7</f>
+      <c r="M18" s="41"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="44">
+        <f t="shared" ref="Q18" si="19">Q16+7</f>
         <v>42838</v>
       </c>
-      <c r="R18" s="99"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="49">
-        <f t="shared" ref="V18" si="24">V16+7</f>
-        <v>42838</v>
-      </c>
-      <c r="W18" s="50"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="19"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
       <c r="AH18" s="12"/>
@@ -3244,36 +3599,36 @@
     </row>
     <row r="19" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
@@ -3284,51 +3639,48 @@
     </row>
     <row r="20" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
-      <c r="B20" s="55">
-        <f t="shared" ref="B20" si="25">B18+7</f>
+      <c r="B20" s="46">
+        <f t="shared" ref="B20" si="20">B18+7</f>
         <v>42778</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="33">
-        <f t="shared" ref="G20" si="26">G18+7</f>
+      <c r="C20" s="47"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="42">
+        <f t="shared" ref="G20" si="21">G18+7</f>
         <v>42843</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="48">
-        <f t="shared" ref="L20" si="27">L18+7</f>
+      <c r="H20" s="43"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="40">
+        <f t="shared" ref="L20" si="22">L18+7</f>
         <v>42844</v>
       </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="33">
-        <f t="shared" ref="Q20" si="28">Q18+7</f>
+      <c r="M20" s="41"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="44">
+        <f t="shared" ref="Q20" si="23">Q18+7</f>
         <v>42845</v>
       </c>
-      <c r="R20" s="99"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="49">
-        <f t="shared" ref="V20" si="29">V18+7</f>
-        <v>42845</v>
-      </c>
-      <c r="W20" s="50"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="19"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
@@ -3339,36 +3691,36 @@
     </row>
     <row r="21" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="19"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
@@ -3379,51 +3731,48 @@
     </row>
     <row r="22" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
-      <c r="B22" s="55">
-        <f t="shared" ref="B22" si="30">B20+7</f>
+      <c r="B22" s="46">
+        <f t="shared" ref="B22" si="24">B20+7</f>
         <v>42785</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="33">
-        <f t="shared" ref="G22" si="31">G20+7</f>
+      <c r="C22" s="47"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="42">
+        <f t="shared" ref="G22" si="25">G20+7</f>
         <v>42850</v>
       </c>
-      <c r="H22" s="99"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="48">
-        <f t="shared" ref="L22" si="32">L20+7</f>
+      <c r="H22" s="43"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="40">
+        <f t="shared" ref="L22" si="26">L20+7</f>
         <v>42851</v>
       </c>
-      <c r="M22" s="102"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="33">
-        <f t="shared" ref="Q22" si="33">Q20+7</f>
+      <c r="M22" s="41"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="44">
+        <f t="shared" ref="Q22" si="27">Q20+7</f>
         <v>42852</v>
       </c>
-      <c r="R22" s="99"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="49">
-        <f t="shared" ref="V22" si="34">V20+7</f>
-        <v>42852</v>
-      </c>
-      <c r="W22" s="50"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="19"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
@@ -3434,36 +3783,36 @@
     </row>
     <row r="23" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="19"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
@@ -3474,51 +3823,48 @@
     </row>
     <row r="24" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
-      <c r="B24" s="55">
-        <f t="shared" ref="B24" si="35">B22+7</f>
+      <c r="B24" s="46">
+        <f t="shared" ref="B24" si="28">B22+7</f>
         <v>42792</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="33">
-        <f t="shared" ref="G24" si="36">G22+7</f>
+      <c r="C24" s="47"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="42">
+        <f t="shared" ref="G24" si="29">G22+7</f>
         <v>42857</v>
       </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="48">
-        <f t="shared" ref="L24" si="37">L22+7</f>
+      <c r="H24" s="43"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="40">
+        <f t="shared" ref="L24" si="30">L22+7</f>
         <v>42858</v>
       </c>
-      <c r="M24" s="102"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="33">
-        <f t="shared" ref="Q24" si="38">Q22+7</f>
+      <c r="M24" s="41"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="44">
+        <f t="shared" ref="Q24" si="31">Q22+7</f>
         <v>42859</v>
       </c>
-      <c r="R24" s="99"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="49">
-        <f t="shared" ref="V24" si="39">V22+7</f>
-        <v>42859</v>
-      </c>
-      <c r="W24" s="50"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="19"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
@@ -3529,36 +3875,36 @@
     </row>
     <row r="25" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="19"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
@@ -3569,51 +3915,48 @@
     </row>
     <row r="26" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26" s="55">
-        <f t="shared" ref="B26" si="40">B24+7</f>
+      <c r="B26" s="46">
+        <f t="shared" ref="B26" si="32">B24+7</f>
         <v>42799</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="33">
-        <f t="shared" ref="G26" si="41">G24+7</f>
+      <c r="C26" s="47"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="42">
+        <f t="shared" ref="G26" si="33">G24+7</f>
         <v>42864</v>
       </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="48">
-        <f t="shared" ref="L26" si="42">L24+7</f>
+      <c r="H26" s="43"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="40">
+        <f t="shared" ref="L26" si="34">L24+7</f>
         <v>42865</v>
       </c>
-      <c r="M26" s="102"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="33">
-        <f t="shared" ref="Q26" si="43">Q24+7</f>
+      <c r="M26" s="41"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="44">
+        <f t="shared" ref="Q26" si="35">Q24+7</f>
         <v>42866</v>
       </c>
-      <c r="R26" s="99"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="49">
-        <f t="shared" ref="V26" si="44">V24+7</f>
-        <v>42866</v>
-      </c>
-      <c r="W26" s="50"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="19"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
@@ -3624,36 +3967,36 @@
     </row>
     <row r="27" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="19"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
@@ -3664,51 +4007,48 @@
     </row>
     <row r="28" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28" s="55">
-        <f t="shared" ref="B28" si="45">B26+7</f>
+      <c r="B28" s="46">
+        <f t="shared" ref="B28" si="36">B26+7</f>
         <v>42806</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="33">
-        <f t="shared" ref="G28" si="46">G26+7</f>
+      <c r="C28" s="47"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="42">
+        <f t="shared" ref="G28" si="37">G26+7</f>
         <v>42871</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="48">
-        <f t="shared" ref="L28" si="47">L26+7</f>
+      <c r="H28" s="43"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="40">
+        <f t="shared" ref="L28" si="38">L26+7</f>
         <v>42872</v>
       </c>
-      <c r="M28" s="102"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="33">
-        <f t="shared" ref="Q28" si="48">Q26+7</f>
+      <c r="M28" s="41"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="44">
+        <f t="shared" ref="Q28" si="39">Q26+7</f>
         <v>42873</v>
       </c>
-      <c r="R28" s="99"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="49">
-        <f t="shared" ref="V28" si="49">V26+7</f>
-        <v>42873</v>
-      </c>
-      <c r="W28" s="50"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="19"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
@@ -3719,36 +4059,36 @@
     </row>
     <row r="29" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="19"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
       <c r="AK29" s="9"/>
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
@@ -3759,51 +4099,48 @@
     </row>
     <row r="30" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="B30" s="55">
-        <f t="shared" ref="B30" si="50">B28+7</f>
+      <c r="B30" s="46">
+        <f t="shared" ref="B30" si="40">B28+7</f>
         <v>42813</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="33">
-        <f t="shared" ref="G30" si="51">G28+7</f>
+      <c r="C30" s="47"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="42">
+        <f t="shared" ref="G30" si="41">G28+7</f>
         <v>42878</v>
       </c>
-      <c r="H30" s="99"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="48">
-        <f t="shared" ref="L30" si="52">L28+7</f>
+      <c r="H30" s="43"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="40">
+        <f t="shared" ref="L30" si="42">L28+7</f>
         <v>42879</v>
       </c>
-      <c r="M30" s="102"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="33">
-        <f t="shared" ref="Q30" si="53">Q28+7</f>
+      <c r="M30" s="41"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="44">
+        <f t="shared" ref="Q30" si="43">Q28+7</f>
         <v>42880</v>
       </c>
-      <c r="R30" s="99"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="49">
-        <f t="shared" ref="V30" si="54">V28+7</f>
-        <v>42880</v>
-      </c>
-      <c r="W30" s="50"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="19"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
@@ -3814,36 +4151,36 @@
     </row>
     <row r="31" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="19"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
       <c r="AK31" s="9"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
@@ -3854,51 +4191,48 @@
     </row>
     <row r="32" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="B32" s="55">
-        <f t="shared" ref="B32" si="55">B30+7</f>
+      <c r="B32" s="46">
+        <f t="shared" ref="B32" si="44">B30+7</f>
         <v>42820</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="33">
-        <f t="shared" ref="G32" si="56">G30+7</f>
+      <c r="C32" s="47"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="42">
+        <f t="shared" ref="G32" si="45">G30+7</f>
         <v>42885</v>
       </c>
-      <c r="H32" s="99"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="48">
-        <f t="shared" ref="L32" si="57">L30+7</f>
+      <c r="H32" s="43"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="40">
+        <f t="shared" ref="L32" si="46">L30+7</f>
         <v>42886</v>
       </c>
-      <c r="M32" s="102"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="33">
-        <f t="shared" ref="Q32" si="58">Q30+7</f>
+      <c r="M32" s="41"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="44">
+        <f t="shared" ref="Q32" si="47">Q30+7</f>
         <v>42887</v>
       </c>
-      <c r="R32" s="99"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="49">
-        <f t="shared" ref="V32" si="59">V30+7</f>
-        <v>42887</v>
-      </c>
-      <c r="W32" s="50"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="19"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
       <c r="AK32" s="9"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
@@ -3909,36 +4243,36 @@
     </row>
     <row r="33" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="19"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
       <c r="Z33"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
       <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
@@ -3974,11 +4308,11 @@
       <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
       <c r="AK34" s="9"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
@@ -4014,11 +4348,11 @@
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
       <c r="AK35" s="9"/>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
@@ -4054,11 +4388,11 @@
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
@@ -4094,11 +4428,11 @@
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
       <c r="AM37" s="9"/>
@@ -4134,11 +4468,11 @@
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
     </row>
     <row r="39" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
@@ -4167,11 +4501,11 @@
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
     </row>
     <row r="40" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
@@ -5411,7 +5745,155 @@
       <c r="M96" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="213">
+  <mergeCells count="169">
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="L32:M33"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="B2:T3"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q26:R27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
@@ -5433,225 +5915,9 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R31"/>
-    <mergeCell ref="V30:W31"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="L28:M29"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R29"/>
-    <mergeCell ref="V28:W29"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q26:R27"/>
-    <mergeCell ref="V26:W27"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="L24:M25"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="V24:W25"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R23"/>
-    <mergeCell ref="V22:W23"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="V20:W21"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="V18:W19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="V16:W17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="V12:W13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="V10:W11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="V8:W9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="V6:W7"/>
-    <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="V32:W33"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="B2:Y3"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="G4:J5"/>
-    <mergeCell ref="L4:O5"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="L32:M33"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="S6:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:E7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="70"/>
-        <cfvo type="num" val="85"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X6:Y7">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="70"/>
-        <cfvo type="num" val="85"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:O7">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="70"/>
         <cfvo type="num" val="85"/>
@@ -5675,6 +5941,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="70"/>
+        <cfvo type="num" val="85"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:O7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="70"/>
@@ -5696,7 +5974,7 @@
   <dimension ref="C3:T22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N7"/>
+      <selection activeCell="O16" sqref="O16:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5712,344 +5990,344 @@
   <sheetData>
     <row r="3" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="114"/>
-      <c r="O4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
+      <c r="O4" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
     </row>
     <row r="5" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="115"/>
-      <c r="F5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="123">
+      <c r="E5" s="105"/>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="24">
         <v>1</v>
       </c>
-      <c r="H5" s="123">
+      <c r="H5" s="24">
         <v>1</v>
       </c>
-      <c r="I5" s="123">
+      <c r="I5" s="24">
         <v>0.5</v>
       </c>
-      <c r="J5" s="124">
+      <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="N5" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+      <c r="K5" s="109"/>
+      <c r="N5" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
     </row>
     <row r="6" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="115"/>
-      <c r="F6" s="125" t="s">
-        <v>25</v>
+      <c r="E6" s="105"/>
+      <c r="F6" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="126" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="117"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="109"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
     </row>
     <row r="7" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="117"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="109"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
     </row>
     <row r="8" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="115"/>
-      <c r="F8" s="129" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="109"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+    </row>
+    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="105"/>
+      <c r="F9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="109"/>
+    </row>
+    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="105"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="109"/>
+      <c r="O10" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+    </row>
+    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="105"/>
+      <c r="F11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="21">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="109"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+    </row>
+    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="105"/>
+      <c r="F12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="109"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+    </row>
+    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+    </row>
+    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="130">
-        <v>1</v>
-      </c>
-      <c r="K8" s="117"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="115"/>
-      <c r="F9" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="117"/>
-    </row>
-    <row r="10" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="115"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="117"/>
-      <c r="O10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-    </row>
-    <row r="11" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="115"/>
-      <c r="F11" s="129" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="116">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="116">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="117"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-    </row>
-    <row r="12" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="115"/>
-      <c r="F12" s="131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="133" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="117"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-    </row>
-    <row r="13" spans="3:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="122"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-    </row>
-    <row r="14" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="69" t="s">
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+    </row>
+    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="98"/>
+    </row>
+    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
+      <c r="O16" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-    </row>
-    <row r="15" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="109"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="110"/>
-    </row>
-    <row r="16" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="109"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="110"/>
-      <c r="O16" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="76"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="86"/>
     </row>
     <row r="17" spans="4:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="78"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="101"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="89"/>
     </row>
     <row r="18" spans="4:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O18" s="77"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="78"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="89"/>
     </row>
     <row r="19" spans="4:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="78"/>
+      <c r="D19" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
     </row>
     <row r="20" spans="4:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="109"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="110"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="80"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="98"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="92"/>
     </row>
     <row r="21" spans="4:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="109"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="110"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
     </row>
     <row r="22" spans="4:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6071,10 +6349,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6083,327 +6361,406 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="82"/>
+      <c r="F4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="82"/>
+      <c r="H4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29" t="s">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29" t="s">
+      <c r="M4" s="82"/>
+      <c r="N4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29" t="s">
+      <c r="O4" s="82"/>
+      <c r="P4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="29"/>
+      <c r="Q4" s="82"/>
     </row>
     <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
     </row>
     <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
     </row>
     <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
     </row>
     <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
     </row>
     <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
     </row>
     <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
     </row>
     <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="45"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
     </row>
     <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
     </row>
     <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="45"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
     </row>
     <row r="17" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+    </row>
+    <row r="24" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="54">
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="B10:C13"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="D8:E9"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:E5"/>
@@ -6413,48 +6770,6 @@
     <mergeCell ref="L4:M5"/>
     <mergeCell ref="N4:O5"/>
     <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B10:C13"/>
-    <mergeCell ref="D14:E17"/>
-    <mergeCell ref="H14:I17"/>
-    <mergeCell ref="J14:K17"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="B14:C17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6462,10 +6777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD149"/>
+  <dimension ref="A1:AD172"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6475,100 +6790,100 @@
   <sheetData>
     <row r="1" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="144" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="146"/>
+      <c r="B2" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="123"/>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="149"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="126"/>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="N5" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="101"/>
-      <c r="T5" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="111"/>
+      <c r="B5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="N5" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="172"/>
+      <c r="T5" s="182" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="182"/>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="E6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="111"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="E6" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="173"/>
+      <c r="I6" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="172"/>
+      <c r="K6" s="182" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="182"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="11"/>
@@ -6581,58 +6896,58 @@
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="29"/>
+      <c r="B8" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="82"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="N8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="34" t="s">
+      <c r="N8" s="185" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="185"/>
+      <c r="P8" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="U8" s="111"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="182"/>
     </row>
     <row r="9" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="E9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="34" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="E9" s="185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="185"/>
+      <c r="G9" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="184"/>
+      <c r="I9" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="111"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="182"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
     </row>
     <row r="10" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="11"/>
@@ -6645,179 +6960,179 @@
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="29"/>
+      <c r="B11" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="82"/>
       <c r="E11" s="13"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="N11" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="111"/>
+      <c r="N11" s="186" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="186"/>
+      <c r="P11" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="182"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
     </row>
     <row r="12" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="E12" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="111"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="E12" s="186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="186"/>
+      <c r="G12" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="182"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="182"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
     <row r="14" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="145"/>
-      <c r="U15" s="146"/>
+      <c r="B15" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="123"/>
     </row>
     <row r="16" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="149"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="126"/>
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="150" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="151"/>
+      <c r="B18" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="116"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="151"/>
+      <c r="E18" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="116"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="24"/>
+      <c r="H18" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="69"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="24"/>
+      <c r="K18" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="69"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="24"/>
+      <c r="N18" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="69"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="24"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="24"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="69"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="206"/>
-      <c r="C19" s="207"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="104"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="104"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="175"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="104"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="175"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="104"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="175"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="104"/>
+      <c r="T19" s="174"/>
+      <c r="U19" s="175"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="153"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="27"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="27"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="72"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="27"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="72"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="27"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="72"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
@@ -6870,125 +7185,125 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="24"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="24"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="24"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="24"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="69"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="24"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="69"/>
     </row>
     <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="105"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="104"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="175"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="104"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="104"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="175"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="104"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="175"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="104"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="175"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="104"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="175"/>
     </row>
     <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="27"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="72"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="27"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="72"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="27"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="72"/>
     </row>
     <row r="33" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="145"/>
-      <c r="S34" s="145"/>
-      <c r="T34" s="145"/>
-      <c r="U34" s="146"/>
+      <c r="B34" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="123"/>
     </row>
     <row r="35" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="147"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="148"/>
-      <c r="R35" s="148"/>
-      <c r="S35" s="148"/>
-      <c r="T35" s="148"/>
-      <c r="U35" s="149"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
+      <c r="U35" s="126"/>
     </row>
     <row r="38" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="181" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="173"/>
+      <c r="C38" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="159"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
@@ -7002,18 +7317,18 @@
       <c r="Z38"/>
     </row>
     <row r="39" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="183"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="185"/>
-      <c r="I39" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="180"/>
+      <c r="I39" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
@@ -7027,51 +7342,51 @@
       <c r="Z39"/>
     </row>
     <row r="40" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="37">
+      <c r="C40" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="59">
         <f>(
  ROUNDDOWN(
  (
  (
- (COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(E42:F135,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
- (COUNTIF(E42:F135,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ (COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(E42:F134,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
  )*100/(
- COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(E42:F135,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(E42:F134,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(E42:F134,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(E42:F134,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(E42:F134,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
  )
  ),2)
 )</f>
         <v>83.33</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="H40" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="F40" s="60"/>
+      <c r="H40" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
@@ -7085,17 +7400,17 @@
       <c r="Z40"/>
     </row>
     <row r="41" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
@@ -7109,19 +7424,19 @@
       <c r="Z41"/>
     </row>
     <row r="42" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="65">
+      <c r="C42" s="48">
         <v>42736</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
@@ -7135,16 +7450,16 @@
       <c r="Z42"/>
     </row>
     <row r="43" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
@@ -7158,15 +7473,15 @@
       <c r="Z43"/>
     </row>
     <row r="44" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="55">
+      <c r="C44" s="46">
         <f t="shared" ref="C44" si="0">C42+7</f>
         <v>42743</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="30"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="173"/>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
@@ -7180,18 +7495,18 @@
       <c r="Z44"/>
     </row>
     <row r="45" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="I45" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="I45" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
@@ -7205,21 +7520,21 @@
       <c r="Z45"/>
     </row>
     <row r="46" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="55">
+      <c r="C46" s="46">
         <f t="shared" ref="C46" si="1">C44+7</f>
         <v>42750</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="101"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="172"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
@@ -7234,16 +7549,16 @@
       <c r="Z46"/>
     </row>
     <row r="47" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
@@ -7258,498 +7573,498 @@
       <c r="Z47"/>
     </row>
     <row r="48" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="55">
+      <c r="C48" s="46">
         <f t="shared" ref="C48" si="2">C46+7</f>
         <v>42757</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
       <c r="Y48"/>
       <c r="Z48"/>
     </row>
     <row r="49" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="173"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
       <c r="Y49"/>
       <c r="Z49"/>
     </row>
     <row r="50" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="55">
+      <c r="C50" s="46">
         <f t="shared" ref="C50" si="3">C48+7</f>
         <v>42764</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
       <c r="Y50"/>
       <c r="Z50"/>
     </row>
     <row r="51" spans="3:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="J51" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
+      <c r="J51" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
       <c r="Y51"/>
       <c r="Z51"/>
     </row>
     <row r="52" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="163">
+      <c r="C52" s="166">
         <f t="shared" ref="C52:C54" si="4">C50+7</f>
         <v>42771</v>
       </c>
-      <c r="D52" s="164"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H52" s="178"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
+      <c r="D52" s="167"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="149" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="150"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
       <c r="Y52"/>
       <c r="Z52"/>
     </row>
     <row r="53" spans="3:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="167"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="179"/>
-      <c r="H53" s="180"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="152"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
       <c r="Y53"/>
       <c r="Z53"/>
     </row>
     <row r="54" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="169">
+      <c r="C54" s="157">
         <f t="shared" si="4"/>
         <v>42778</v>
       </c>
-      <c r="D54" s="170"/>
-      <c r="E54" s="171"/>
-      <c r="F54" s="172"/>
-      <c r="G54" s="177" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" s="178"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="162"/>
+      <c r="G54" s="149" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="150"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
     </row>
     <row r="55" spans="3:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="173"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="175"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="179"/>
-      <c r="H55" s="180"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="163"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="152"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
     </row>
     <row r="56" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
     </row>
     <row r="57" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
     </row>
     <row r="58" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="82"/>
+      <c r="E58" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="112"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
     </row>
     <row r="59" spans="3:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="195"/>
-      <c r="F59" s="196"/>
-      <c r="G59" s="196"/>
-      <c r="H59" s="197"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="138"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
     </row>
     <row r="60" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="190" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="191"/>
-      <c r="G60" s="186">
+      <c r="E60" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="140"/>
+      <c r="G60" s="59">
         <f>(
  ROUNDDOWN(
  (
  (
- (COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
- (COUNTIF(G62:H137,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
- (COUNTIF(G62:H137,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ (COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(G62:H154,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
  )*100/(
- COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
- COUNTIF(G62:H137,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(G62:H154,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(G62:H154,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(G62:H154,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(G62:H154,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
  )
  ),2)
 )</f>
-        <v>93.75</v>
-      </c>
-      <c r="H60" s="187"/>
+        <v>91.66</v>
+      </c>
+      <c r="H60" s="60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
     </row>
     <row r="61" spans="3:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="192"/>
-      <c r="F61" s="193"/>
-      <c r="G61" s="188"/>
-      <c r="H61" s="189"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="62"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
     </row>
     <row r="62" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="204">
+      <c r="E62" s="143">
         <v>42736</v>
       </c>
-      <c r="F62" s="205"/>
-      <c r="G62" s="202" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="203"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="146"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
     </row>
     <row r="63" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="85"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="201" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="142"/>
-      <c r="J63" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="K63" s="140"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="140"/>
-      <c r="O63" s="76"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="154"/>
+      <c r="J63" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="85"/>
+      <c r="N63" s="85"/>
+      <c r="O63" s="86"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
     </row>
     <row r="64" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="100">
+      <c r="E64" s="132">
         <f t="shared" ref="E64" si="5">E62+7</f>
         <v>42743</v>
       </c>
-      <c r="F64" s="82"/>
-      <c r="G64" s="199" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="200"/>
-      <c r="I64" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="J64" s="77"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="103"/>
-      <c r="M64" s="103"/>
-      <c r="N64" s="103"/>
-      <c r="O64" s="78"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="156"/>
+      <c r="I64" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="87"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="89"/>
     </row>
     <row r="65" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="85"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="198" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="143"/>
-      <c r="I65" s="161"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="103"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="78"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="148"/>
+      <c r="I65" s="131"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="89"/>
     </row>
     <row r="66" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="100">
+      <c r="E66" s="132">
         <f t="shared" ref="E66" si="6">E64+7</f>
         <v>42750</v>
       </c>
-      <c r="F66" s="82"/>
-      <c r="G66" s="198" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="143"/>
-      <c r="I66" s="161"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="103"/>
-      <c r="M66" s="103"/>
-      <c r="N66" s="103"/>
-      <c r="O66" s="78"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="148"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="89"/>
     </row>
     <row r="67" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="85"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="198" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="143"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="141"/>
-      <c r="L67" s="141"/>
-      <c r="M67" s="141"/>
-      <c r="N67" s="141"/>
-      <c r="O67" s="80"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="148"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="92"/>
     </row>
     <row r="68" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" s="100">
+      <c r="E68" s="132">
         <f t="shared" ref="E68" si="7">E66+7</f>
         <v>42757</v>
       </c>
-      <c r="F68" s="82"/>
-      <c r="G68" s="198" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="143"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="148"/>
     </row>
     <row r="69" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="85"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="156"/>
-      <c r="J69" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="K69" s="140"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="140"/>
-      <c r="N69" s="140"/>
-      <c r="O69" s="76"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="134"/>
+      <c r="J69" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" s="85"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="86"/>
     </row>
     <row r="70" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="100">
+      <c r="E70" s="132">
         <f t="shared" ref="E70" si="8">E68+7</f>
         <v>42764</v>
       </c>
-      <c r="F70" s="82"/>
-      <c r="G70" s="157" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="158"/>
-      <c r="I70" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="J70" s="77"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="78"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="128"/>
+      <c r="I70" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="87"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="89"/>
     </row>
     <row r="71" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="85"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="160"/>
-      <c r="I71" s="161"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="103"/>
-      <c r="L71" s="103"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="103"/>
-      <c r="O71" s="78"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+      <c r="O71" s="89"/>
     </row>
     <row r="72" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" s="100">
+      <c r="E72" s="132">
         <f t="shared" ref="E72" si="9">E70+7</f>
         <v>42771</v>
       </c>
-      <c r="F72" s="82"/>
-      <c r="G72" s="155"/>
-      <c r="H72" s="156"/>
-      <c r="I72" s="161"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="103"/>
-      <c r="M72" s="103"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="78"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="89"/>
       <c r="T72"/>
       <c r="U72"/>
       <c r="V72"/>
@@ -7763,17 +8078,17 @@
       <c r="AD72"/>
     </row>
     <row r="73" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" s="85"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="155"/>
-      <c r="H73" s="156"/>
-      <c r="I73" s="139"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="80"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="92"/>
       <c r="T73"/>
       <c r="U73"/>
       <c r="V73"/>
@@ -7835,14 +8150,14 @@
       <c r="AD75"/>
     </row>
     <row r="76" spans="3:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="76"/>
+      <c r="C76" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="86"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
@@ -7861,22 +8176,22 @@
       <c r="AD76"/>
     </row>
     <row r="77" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="77"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="78"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="89"/>
       <c r="I77"/>
-      <c r="J77" s="150" t="s">
-        <v>42</v>
-      </c>
-      <c r="K77" s="151"/>
+      <c r="J77" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" s="116"/>
       <c r="L77"/>
-      <c r="M77" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="N77" s="151"/>
+      <c r="M77" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="N77" s="116"/>
       <c r="T77"/>
       <c r="U77"/>
       <c r="V77"/>
@@ -7890,18 +8205,18 @@
       <c r="AD77"/>
     </row>
     <row r="78" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="77"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="78"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="89"/>
       <c r="I78"/>
-      <c r="J78" s="206"/>
-      <c r="K78" s="207"/>
+      <c r="J78" s="117"/>
+      <c r="K78" s="118"/>
       <c r="L78"/>
-      <c r="M78" s="206"/>
-      <c r="N78" s="207"/>
+      <c r="M78" s="117"/>
+      <c r="N78" s="118"/>
       <c r="T78"/>
       <c r="U78"/>
       <c r="V78"/>
@@ -7915,18 +8230,18 @@
       <c r="AD78"/>
     </row>
     <row r="79" spans="3:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="77"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="78"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="89"/>
       <c r="I79"/>
-      <c r="J79" s="152"/>
-      <c r="K79" s="153"/>
+      <c r="J79" s="119"/>
+      <c r="K79" s="120"/>
       <c r="L79"/>
-      <c r="M79" s="152"/>
-      <c r="N79" s="153"/>
+      <c r="M79" s="119"/>
+      <c r="N79" s="120"/>
       <c r="T79"/>
       <c r="U79"/>
       <c r="V79"/>
@@ -7940,12 +8255,12 @@
       <c r="AD79"/>
     </row>
     <row r="80" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="79"/>
-      <c r="D80" s="141"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="141"/>
-      <c r="G80" s="141"/>
-      <c r="H80" s="80"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="92"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
@@ -8194,102 +8509,728 @@
     </row>
     <row r="137" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="138" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="144" t="s">
+      <c r="B138" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="122"/>
+      <c r="D138" s="122"/>
+      <c r="E138" s="122"/>
+      <c r="F138" s="122"/>
+      <c r="G138" s="122"/>
+      <c r="H138" s="122"/>
+      <c r="I138" s="122"/>
+      <c r="J138" s="122"/>
+      <c r="K138" s="122"/>
+      <c r="L138" s="122"/>
+      <c r="M138" s="122"/>
+      <c r="N138" s="122"/>
+      <c r="O138" s="122"/>
+      <c r="P138" s="122"/>
+      <c r="Q138" s="122"/>
+      <c r="R138" s="122"/>
+      <c r="S138" s="122"/>
+      <c r="T138" s="122"/>
+      <c r="U138" s="123"/>
+    </row>
+    <row r="139" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="124"/>
+      <c r="C139" s="125"/>
+      <c r="D139" s="125"/>
+      <c r="E139" s="125"/>
+      <c r="F139" s="125"/>
+      <c r="G139" s="125"/>
+      <c r="H139" s="125"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="125"/>
+      <c r="K139" s="125"/>
+      <c r="L139" s="125"/>
+      <c r="M139" s="125"/>
+      <c r="N139" s="125"/>
+      <c r="O139" s="125"/>
+      <c r="P139" s="125"/>
+      <c r="Q139" s="125"/>
+      <c r="R139" s="125"/>
+      <c r="S139" s="125"/>
+      <c r="T139" s="125"/>
+      <c r="U139" s="126"/>
+    </row>
+    <row r="140" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="192"/>
+      <c r="D141" s="192"/>
+      <c r="E141" s="193"/>
+      <c r="H141" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="I141" s="82"/>
+      <c r="J141" s="82"/>
+      <c r="K141" s="82"/>
+      <c r="L141" s="82"/>
+      <c r="M141" s="82"/>
+      <c r="N141" s="82"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="R141" s="192"/>
+      <c r="S141" s="192"/>
+      <c r="T141" s="193"/>
+    </row>
+    <row r="142" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="194"/>
+      <c r="C142" s="137"/>
+      <c r="D142" s="137"/>
+      <c r="E142" s="195"/>
+      <c r="H142" s="82"/>
+      <c r="I142" s="82"/>
+      <c r="J142" s="82"/>
+      <c r="K142" s="82"/>
+      <c r="L142" s="82"/>
+      <c r="M142" s="82"/>
+      <c r="N142" s="82"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142" s="194"/>
+      <c r="R142" s="137"/>
+      <c r="S142" s="137"/>
+      <c r="T142" s="195"/>
+    </row>
+    <row r="143" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="140"/>
+      <c r="D143" s="59">
+        <f>(
+ ROUNDDOWN(
+ (
+ (
+ (COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(D145:E237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ )*100/(
+ COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(D145:E237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(D145:E237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(D145:E237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(D145:E237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ )
+ ),2)
+)</f>
+        <v>91.66</v>
+      </c>
+      <c r="E143" s="60"/>
+      <c r="H143" s="82"/>
+      <c r="I143" s="82"/>
+      <c r="J143" s="82"/>
+      <c r="K143" s="82"/>
+      <c r="L143" s="82"/>
+      <c r="M143" s="82"/>
+      <c r="N143" s="82"/>
+      <c r="O143" s="225" t="s">
+        <v>66</v>
+      </c>
+      <c r="P143" s="225"/>
+      <c r="Q143" s="221" t="s">
+        <v>18</v>
+      </c>
+      <c r="R143" s="140"/>
+      <c r="S143" s="59">
+        <f>(
+ ROUNDDOWN(
+ (
+ (
+ (COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos +",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,2,FALSE))+1)) +
+ (COUNTIF(S145:T237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))* (VALUE(VLOOKUP("Pesos -",Celulas!$F$5:$J$12,3,FALSE))+1))
+ )*100/(
+ COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,3,FALSE)) +
+ COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,4,FALSE)) +
+ COUNTIF(S145:T237,VLOOKUP("Positivas",Celulas!$F$5:$J$12,5,FALSE)) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,2,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,2,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,3,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,3,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,4,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,4,FALSE))) +
+ (COUNTIF(S145:T237,VLOOKUP("Neutras",Celulas!$F$5:$J$12,5,FALSE))* VALUE(VLOOKUP("Pesos =",Celulas!$F$5:$J$12,5,FALSE))) +
+ COUNTIF(S145:T237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,2,FALSE)) +
+ COUNTIF(S145:T237,VLOOKUP("Negativas",Celulas!$F$5:$J$12,3,FALSE))
+ )
+ ),2)
+)</f>
+        <v>90</v>
+      </c>
+      <c r="T143" s="60"/>
+    </row>
+    <row r="144" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="197"/>
+      <c r="C144" s="142"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="62"/>
+      <c r="H144" s="82"/>
+      <c r="I144" s="82"/>
+      <c r="J144" s="82"/>
+      <c r="K144" s="82"/>
+      <c r="L144" s="82"/>
+      <c r="M144" s="82"/>
+      <c r="N144" s="82"/>
+      <c r="O144" s="225"/>
+      <c r="P144" s="225"/>
+      <c r="Q144" s="222"/>
+      <c r="R144" s="142"/>
+      <c r="S144" s="61"/>
+      <c r="T144" s="62"/>
+    </row>
+    <row r="145" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="198">
+        <v>42736</v>
+      </c>
+      <c r="C145" s="144"/>
+      <c r="D145" s="145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="199"/>
+      <c r="H145" s="82"/>
+      <c r="I145" s="82"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="82"/>
+      <c r="L145" s="82"/>
+      <c r="M145" s="82"/>
+      <c r="N145" s="82"/>
+      <c r="O145" s="225"/>
+      <c r="P145" s="225"/>
+      <c r="Q145" s="223">
+        <v>42740</v>
+      </c>
+      <c r="R145" s="144"/>
+      <c r="S145" s="145" t="s">
+        <v>14</v>
+      </c>
+      <c r="T145" s="199"/>
+    </row>
+    <row r="146" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="200"/>
+      <c r="C146" s="114"/>
+      <c r="D146" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="201"/>
+      <c r="N146"/>
+      <c r="O146" s="225"/>
+      <c r="P146" s="225"/>
+      <c r="Q146" s="224"/>
+      <c r="R146" s="114"/>
+      <c r="S146" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="T146" s="201"/>
+    </row>
+    <row r="147" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="202">
+        <f t="shared" ref="B147" si="10">B145+7</f>
+        <v>42743</v>
+      </c>
+      <c r="C147" s="112"/>
+      <c r="D147" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="203"/>
+      <c r="F147" s="149" t="s">
+        <v>53</v>
+      </c>
+      <c r="G147" s="150"/>
+      <c r="H147" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="I147" s="82"/>
+      <c r="J147" s="82"/>
+      <c r="K147" s="82"/>
+      <c r="L147" s="82"/>
+      <c r="M147" s="82"/>
+      <c r="N147" s="82"/>
+      <c r="O147" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="P147" s="150"/>
+      <c r="Q147" s="202">
+        <f t="shared" ref="Q147" si="11">Q145+7</f>
+        <v>42747</v>
+      </c>
+      <c r="R147" s="112"/>
+      <c r="S147" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="T147" s="203"/>
+    </row>
+    <row r="148" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="200"/>
+      <c r="C148" s="114"/>
+      <c r="D148" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="204"/>
+      <c r="F148" s="151"/>
+      <c r="G148" s="152"/>
+      <c r="H148" s="82"/>
+      <c r="I148" s="82"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="82"/>
+      <c r="L148" s="82"/>
+      <c r="M148" s="82"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="151"/>
+      <c r="P148" s="152"/>
+      <c r="Q148" s="200"/>
+      <c r="R148" s="114"/>
+      <c r="S148" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="T148" s="204"/>
+    </row>
+    <row r="149" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="202">
+        <f t="shared" ref="B149" si="12">B147+7</f>
+        <v>42750</v>
+      </c>
+      <c r="C149" s="112"/>
+      <c r="D149" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="204"/>
+      <c r="H149" s="82"/>
+      <c r="I149" s="82"/>
+      <c r="J149" s="82"/>
+      <c r="K149" s="82"/>
+      <c r="L149" s="82"/>
+      <c r="M149" s="82"/>
+      <c r="N149" s="82"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149" s="202">
+        <f t="shared" ref="Q149" si="13">Q147+7</f>
+        <v>42754</v>
+      </c>
+      <c r="R149" s="112"/>
+      <c r="S149" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="T149" s="184"/>
+    </row>
+    <row r="150" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="200"/>
+      <c r="C150" s="114"/>
+      <c r="D150" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="204"/>
+      <c r="H150" s="82"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="82"/>
+      <c r="L150" s="82"/>
+      <c r="M150" s="82"/>
+      <c r="N150" s="82"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150" s="200"/>
+      <c r="R150" s="114"/>
+      <c r="S150" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="T150" s="204"/>
+    </row>
+    <row r="151" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="202">
+        <f t="shared" ref="B151" si="14">B149+7</f>
+        <v>42757</v>
+      </c>
+      <c r="C151" s="112"/>
+      <c r="D151" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="204"/>
+      <c r="H151" s="82"/>
+      <c r="I151" s="82"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="82"/>
+      <c r="L151" s="82"/>
+      <c r="M151" s="82"/>
+      <c r="N151" s="82"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151" s="202">
+        <f t="shared" ref="Q151" si="15">Q149+7</f>
+        <v>42761</v>
+      </c>
+      <c r="R151" s="112"/>
+      <c r="S151" s="147" t="s">
+        <v>12</v>
+      </c>
+      <c r="T151" s="204"/>
+    </row>
+    <row r="152" spans="2:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="200"/>
+      <c r="C152" s="114"/>
+      <c r="D152" s="133"/>
+      <c r="E152" s="205"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152" s="200"/>
+      <c r="R152" s="114"/>
+      <c r="S152" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="T152" s="183"/>
+    </row>
+    <row r="153" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="202">
+        <f t="shared" ref="B153" si="16">B151+7</f>
+        <v>42764</v>
+      </c>
+      <c r="C153" s="112"/>
+      <c r="D153" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="206"/>
+      <c r="G153" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C138" s="145"/>
-      <c r="D138" s="145"/>
-      <c r="E138" s="145"/>
-      <c r="F138" s="145"/>
-      <c r="G138" s="145"/>
-      <c r="H138" s="145"/>
-      <c r="I138" s="145"/>
-      <c r="J138" s="145"/>
-      <c r="K138" s="145"/>
-      <c r="L138" s="145"/>
-      <c r="M138" s="145"/>
-      <c r="N138" s="145"/>
-      <c r="O138" s="145"/>
-      <c r="P138" s="145"/>
-      <c r="Q138" s="145"/>
-      <c r="R138" s="145"/>
-      <c r="S138" s="145"/>
-      <c r="T138" s="145"/>
-      <c r="U138" s="146"/>
-    </row>
-    <row r="139" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="147"/>
-      <c r="C139" s="148"/>
-      <c r="D139" s="148"/>
-      <c r="E139" s="148"/>
-      <c r="F139" s="148"/>
-      <c r="G139" s="148"/>
-      <c r="H139" s="148"/>
-      <c r="I139" s="148"/>
-      <c r="J139" s="148"/>
-      <c r="K139" s="148"/>
-      <c r="L139" s="148"/>
-      <c r="M139" s="148"/>
-      <c r="N139" s="148"/>
-      <c r="O139" s="148"/>
-      <c r="P139" s="148"/>
-      <c r="Q139" s="148"/>
-      <c r="R139" s="148"/>
-      <c r="S139" s="148"/>
-      <c r="T139" s="148"/>
-      <c r="U139" s="149"/>
-    </row>
-    <row r="146" spans="11:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="11:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K147" s="150" t="s">
+      <c r="H153" s="68"/>
+      <c r="I153" s="68"/>
+      <c r="J153" s="69"/>
+      <c r="L153" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="L147" s="151"/>
-    </row>
-    <row r="148" spans="11:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K148" s="206"/>
-      <c r="L148" s="207"/>
-    </row>
-    <row r="149" spans="11:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K149" s="152"/>
-      <c r="L149" s="153"/>
+      <c r="M153" s="213"/>
+      <c r="N153" s="213"/>
+      <c r="O153" s="214"/>
+      <c r="P153"/>
+      <c r="Q153" s="202">
+        <f t="shared" ref="Q153" si="17">Q151+7</f>
+        <v>42768</v>
+      </c>
+      <c r="R153" s="112"/>
+      <c r="S153" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="T153" s="206"/>
+    </row>
+    <row r="154" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="200"/>
+      <c r="C154" s="114"/>
+      <c r="D154" s="129"/>
+      <c r="E154" s="207"/>
+      <c r="G154" s="174"/>
+      <c r="H154" s="88"/>
+      <c r="I154" s="88"/>
+      <c r="J154" s="175"/>
+      <c r="L154" s="215"/>
+      <c r="M154" s="216"/>
+      <c r="N154" s="216"/>
+      <c r="O154" s="217"/>
+      <c r="P154"/>
+      <c r="Q154" s="200"/>
+      <c r="R154" s="114"/>
+      <c r="S154" s="129"/>
+      <c r="T154" s="207"/>
+    </row>
+    <row r="155" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="202">
+        <f t="shared" ref="B155" si="18">B153+7</f>
+        <v>42771</v>
+      </c>
+      <c r="C155" s="112"/>
+      <c r="D155" s="133"/>
+      <c r="E155" s="205"/>
+      <c r="G155" s="174"/>
+      <c r="H155" s="88"/>
+      <c r="I155" s="88"/>
+      <c r="J155" s="175"/>
+      <c r="L155" s="215"/>
+      <c r="M155" s="216"/>
+      <c r="N155" s="216"/>
+      <c r="O155" s="217"/>
+      <c r="P155"/>
+      <c r="Q155" s="202">
+        <f t="shared" ref="Q155" si="19">Q153+7</f>
+        <v>42775</v>
+      </c>
+      <c r="R155" s="112"/>
+      <c r="S155" s="133"/>
+      <c r="T155" s="205"/>
+    </row>
+    <row r="156" spans="2:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="208"/>
+      <c r="C156" s="209"/>
+      <c r="D156" s="210"/>
+      <c r="E156" s="211"/>
+      <c r="G156" s="174"/>
+      <c r="H156" s="88"/>
+      <c r="I156" s="88"/>
+      <c r="J156" s="175"/>
+      <c r="L156" s="215"/>
+      <c r="M156" s="216"/>
+      <c r="N156" s="216"/>
+      <c r="O156" s="217"/>
+      <c r="P156"/>
+      <c r="Q156" s="208"/>
+      <c r="R156" s="209"/>
+      <c r="S156" s="210"/>
+      <c r="T156" s="211"/>
+    </row>
+    <row r="157" spans="2:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="174"/>
+      <c r="H157" s="88"/>
+      <c r="I157" s="88"/>
+      <c r="J157" s="175"/>
+      <c r="L157" s="215"/>
+      <c r="M157" s="216"/>
+      <c r="N157" s="216"/>
+      <c r="O157" s="217"/>
+      <c r="AC157"/>
+    </row>
+    <row r="158" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" s="69"/>
+      <c r="G158" s="174"/>
+      <c r="H158" s="88"/>
+      <c r="I158" s="88"/>
+      <c r="J158" s="175"/>
+      <c r="L158" s="215"/>
+      <c r="M158" s="216"/>
+      <c r="N158" s="216"/>
+      <c r="O158" s="217"/>
+      <c r="Q158" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="R158" s="116"/>
+      <c r="AC158"/>
+    </row>
+    <row r="159" spans="2:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="174"/>
+      <c r="C159" s="175"/>
+      <c r="G159" s="70"/>
+      <c r="H159" s="71"/>
+      <c r="I159" s="71"/>
+      <c r="J159" s="72"/>
+      <c r="L159" s="218"/>
+      <c r="M159" s="219"/>
+      <c r="N159" s="219"/>
+      <c r="O159" s="220"/>
+      <c r="Q159" s="117"/>
+      <c r="R159" s="118"/>
+      <c r="Z159"/>
+      <c r="AA159"/>
+      <c r="AB159"/>
+      <c r="AC159"/>
+    </row>
+    <row r="160" spans="2:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="70"/>
+      <c r="C160" s="72"/>
+      <c r="Q160" s="119"/>
+      <c r="R160" s="120"/>
+      <c r="Z160"/>
+      <c r="AA160"/>
+      <c r="AB160"/>
+      <c r="AC160"/>
+    </row>
+    <row r="161" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z161"/>
+      <c r="AA161"/>
+      <c r="AB161"/>
+      <c r="AC161"/>
+    </row>
+    <row r="162" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z162"/>
+      <c r="AA162"/>
+      <c r="AB162"/>
+      <c r="AC162"/>
+    </row>
+    <row r="163" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z163"/>
+      <c r="AA163"/>
+      <c r="AB163"/>
+      <c r="AC163"/>
+    </row>
+    <row r="164" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z164"/>
+      <c r="AA164"/>
+      <c r="AB164"/>
+      <c r="AC164"/>
+    </row>
+    <row r="165" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z165"/>
+      <c r="AA165"/>
+      <c r="AB165"/>
+      <c r="AC165"/>
+    </row>
+    <row r="166" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z166"/>
+      <c r="AA166"/>
+      <c r="AB166"/>
+      <c r="AC166"/>
+    </row>
+    <row r="167" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z167"/>
+      <c r="AA167"/>
+      <c r="AB167"/>
+      <c r="AC167"/>
+    </row>
+    <row r="168" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z168"/>
+      <c r="AA168"/>
+      <c r="AB168"/>
+      <c r="AC168"/>
+    </row>
+    <row r="169" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z169"/>
+      <c r="AA169"/>
+      <c r="AB169"/>
+      <c r="AC169"/>
+    </row>
+    <row r="170" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z170"/>
+      <c r="AA170"/>
+      <c r="AB170"/>
+      <c r="AC170"/>
+    </row>
+    <row r="171" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z171"/>
+      <c r="AA171"/>
+      <c r="AB171"/>
+      <c r="AC171"/>
+    </row>
+    <row r="172" spans="26:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z172"/>
+      <c r="AA172"/>
+      <c r="AB172"/>
+      <c r="AC172"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="J77:K79"/>
-    <mergeCell ref="B138:U139"/>
-    <mergeCell ref="M77:N79"/>
-    <mergeCell ref="K147:L149"/>
-    <mergeCell ref="G70:H71"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="E72:F73"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="C76:H80"/>
-    <mergeCell ref="E58:H59"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="J63:O67"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="E66:F67"/>
-    <mergeCell ref="E70:F71"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E68:F69"/>
-    <mergeCell ref="J69:O73"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="G69:H69"/>
+  <mergeCells count="147">
+    <mergeCell ref="S149:T149"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="O143:P146"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="Q153:R154"/>
+    <mergeCell ref="S153:T154"/>
+    <mergeCell ref="Q155:R156"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="Q141:T142"/>
+    <mergeCell ref="Q143:R144"/>
+    <mergeCell ref="S143:T144"/>
+    <mergeCell ref="Q145:R146"/>
+    <mergeCell ref="S145:T145"/>
+    <mergeCell ref="S146:T146"/>
+    <mergeCell ref="Q147:R148"/>
+    <mergeCell ref="S147:T147"/>
+    <mergeCell ref="S148:T148"/>
+    <mergeCell ref="Q149:R150"/>
+    <mergeCell ref="S150:T150"/>
+    <mergeCell ref="Q151:R152"/>
+    <mergeCell ref="B158:C160"/>
+    <mergeCell ref="H147:N151"/>
+    <mergeCell ref="G153:J159"/>
+    <mergeCell ref="L153:O159"/>
+    <mergeCell ref="H141:N145"/>
+    <mergeCell ref="B155:C156"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F147:G148"/>
+    <mergeCell ref="O147:P148"/>
+    <mergeCell ref="B141:E142"/>
+    <mergeCell ref="B143:C144"/>
+    <mergeCell ref="D143:E144"/>
+    <mergeCell ref="B145:C146"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B147:C148"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C150"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B151:C152"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="B153:C154"/>
+    <mergeCell ref="D153:E154"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B2:U3"/>
+    <mergeCell ref="B15:U16"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="T8:U9"/>
+    <mergeCell ref="R8:S9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="T18:U20"/>
+    <mergeCell ref="Q18:R20"/>
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="N18:O20"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="H18:I20"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="B23:C25"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="K23:L25"/>
+    <mergeCell ref="T23:U25"/>
+    <mergeCell ref="B34:U35"/>
+    <mergeCell ref="C38:F39"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="I39:N43"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="N23:O25"/>
+    <mergeCell ref="Q23:R25"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="J51:O55"/>
     <mergeCell ref="I45:N49"/>
     <mergeCell ref="C50:D51"/>
@@ -8304,60 +9245,43 @@
     <mergeCell ref="C48:D49"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="T23:U25"/>
-    <mergeCell ref="B34:U35"/>
-    <mergeCell ref="C38:F39"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="I39:N43"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="B23:C25"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="K23:L25"/>
-    <mergeCell ref="N23:O25"/>
-    <mergeCell ref="T18:U20"/>
-    <mergeCell ref="Q18:R20"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="N18:O20"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="H18:I20"/>
-    <mergeCell ref="B2:U3"/>
-    <mergeCell ref="B15:U16"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="T8:U9"/>
-    <mergeCell ref="R8:S9"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="Q23:R25"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="J63:O67"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="E68:F69"/>
+    <mergeCell ref="J69:O73"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E58:H59"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="J77:K79"/>
+    <mergeCell ref="B138:U139"/>
+    <mergeCell ref="M77:N79"/>
+    <mergeCell ref="Q158:R160"/>
+    <mergeCell ref="G70:H71"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="E72:F73"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C76:H80"/>
+    <mergeCell ref="G73:H73"/>
   </mergeCells>
-  <conditionalFormatting sqref="E40:F41">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="S143:T144">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="70"/>
         <cfvo type="num" val="85"/>
@@ -8368,8 +9292,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:H61">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G60:H61 E40:F41">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="70"/>
+        <cfvo type="num" val="85"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D143:E144">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="70"/>
         <cfvo type="num" val="85"/>
@@ -8385,7 +9321,7 @@
     <hyperlink ref="B18:C20" location="Tutorial!B51" display="Introdução à estrutura"/>
     <hyperlink ref="E18:F20" location="Tutorial!B155" display="Criando novas matérias"/>
     <hyperlink ref="M77:N79" location="Tutorial!B2" display="Voltar"/>
-    <hyperlink ref="K147:L149" location="Tutorial!B2" display="Voltar"/>
+    <hyperlink ref="Q158:R160" location="Tutorial!B2" display="Voltar"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
